--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1303"/>
+  <dimension ref="A1:H1335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A669" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F693" sqref="F693"/>
@@ -34286,10 +34286,972 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
       <c r="H1303" t="n">
         <v>99</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>110TWN09180</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>Twinings Lemon &amp; Ginger Herbal Tea Bags - 25/Box</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12</t>
+        </is>
+      </c>
+      <c r="H1304" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>110TWN09181</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>Twinings English Breakfast Tea Bags - 25/Box</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24</t>
+        </is>
+      </c>
+      <c r="H1305" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>110TWN09183</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>Twinings Earl Grey Tea Bags - 25/Box</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6</t>
+        </is>
+      </c>
+      <c r="H1306" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>40862028</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>Ghirardelli 30 lb. Sweet Ground Chocolate &amp; Cocoa Powder</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5</t>
+        </is>
+      </c>
+      <c r="H1307" t="n">
+        <v>123.47</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>8808604CS</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>Torani Puremade White Chocolate Flavoring Sauce 64 fl. oz. - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="H1308" t="n">
+        <v>72.98999999999999</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>8808605CS</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>Torani Puremade Dark Chocolate Flavoring Sauce 64 fl. oz. - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8</t>
+        </is>
+      </c>
+      <c r="H1309" t="n">
+        <v>67.98999999999999</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>110TWN05328</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>Twinings Irish Breakfast Tea Bags - 20/Box</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12</t>
+        </is>
+      </c>
+      <c r="H1310" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>711SPRNKLEPK</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>Adourne Pink Sprinkles 10 lb.</t>
+        </is>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1311" t="n">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>107750625</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>110TWN09183</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>Twinings Earl Grey Tea Bags - 25/Box</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12</t>
+        </is>
+      </c>
+      <c r="H1312" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 17, 2025</t>
+        </is>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>107750760</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>323CIRCL2018</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>Lavex 2" Fluorescent Green Matte Paper Permanent Round Inventory Label - 500/Roll</t>
+        </is>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12</t>
+        </is>
+      </c>
+      <c r="H1313" t="n">
+        <v>6.489999999999999</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>150BB6218N</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>Durable Packaging BB6218N 18" x 6" x 3 1/4" Kraft Paper Windowed Bread Bag - 1000/Case</t>
+        </is>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1314" t="n">
+        <v>104.99</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>43306LPIE300</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>Choice 6" Clear Hinged Pie Container with Low Dome Lid - 300/Case</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4</t>
+        </is>
+      </c>
+      <c r="H1315" t="n">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>Bagcraft Packaging 300865 EcoCraft 6" x 3 1/2" x 13 1/2" Dubl Panel® Artisan Bread Bag - 500/Case</t>
+        </is>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1316" t="n">
+        <v>79.98999999999999</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>Choice 160 oz. Beverage Take-Out Container - 20/Case</t>
+        </is>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3</t>
+        </is>
+      </c>
+      <c r="H1317" t="n">
+        <v>94.99000000000001</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>433QLINERBL</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>Baker's Lane 16" x 24" Full Size Quilon® Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1000/Case</t>
+        </is>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6</t>
+        </is>
+      </c>
+      <c r="H1318" t="n">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 18, 2025</t>
+        </is>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>107786615</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>Baker's Lane 16" x 24" Full Size Silicone Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1000/Case</t>
+        </is>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4</t>
+        </is>
+      </c>
+      <c r="H1319" t="n">
+        <v>76.98999999999999</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 19, 2025</t>
+        </is>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>107836987</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>8808606CS</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>Torani Puremade Caramel Flavoring Sauce 64 fl. oz. - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8</t>
+        </is>
+      </c>
+      <c r="H1320" t="n">
+        <v>72.98999999999999</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>844CBBLKNBR35</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>Lavex 3' x 5' Heavy-Duty Black Grease-Resistant Anti-Fatigue Closed-Cell Nitrile Rubber Floor Mat - 3/4" Thick</t>
+        </is>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1321" t="n">
+        <v>92.98999999999999</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>697STW60</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>Lavex 60" Wooden Mop Handle with Stirrup-Style End</t>
+        </is>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3</t>
+        </is>
+      </c>
+      <c r="H1322" t="n">
+        <v>7.989999999999999</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>544SYPFR145K</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>Monin Premium Toasted Marshmallow Flavoring Syrup 1 Liter - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1323" t="n">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>544SYPFR023K</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>Monin Premium Hazelnut Flavoring Syrup 1 Liter - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1324" t="n">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>544SYPAR012KT</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>Monin Premium Cinnamon Flavoring Syrup 750 mL - 12/Case</t>
+        </is>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="H1325" t="n">
+        <v>86.98999999999999</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>544SYPAR258KT</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>Monin Premium Butter Pecan Flavoring Syrup 750 mL - 12/Case</t>
+        </is>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1326" t="n">
+        <v>86.98999999999999</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>110TWN08465KT</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>Twinings Pomegranate &amp; Raspberry Herbal Tea Bags - 120/Case</t>
+        </is>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1327" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>182RRF8</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>Choice 6 1/2" x 7 3/4" Plastic Food Bag on a Roll - 2000/Case</t>
+        </is>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6</t>
+        </is>
+      </c>
+      <c r="H1328" t="n">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>110TWN05322KT</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>Twinings Darjeeling Tea Bags - 120/Case</t>
+        </is>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2</t>
+        </is>
+      </c>
+      <c r="H1329" t="n">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 23, 2025</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>107965562</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>8808607CS</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>Torani Puremade Pumpkin Pie Flavoring Sauce 64 fl. oz. - 4/Case</t>
+        </is>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="H1330" t="n">
+        <v>72.98999999999999</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 26, 2025</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>108078832</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>612H18A</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>Durable Packaging High Dome Plastic Cover for 1/4 Sheet Cake Pan - 100/Case</t>
+        </is>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8</t>
+        </is>
+      </c>
+      <c r="H1331" t="n">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 26, 2025</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>108078832</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>612604245</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>Durable Packaging 1/4 Sheet Foil Cake Pan - 100/Case</t>
+        </is>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8</t>
+        </is>
+      </c>
+      <c r="H1332" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 26, 2025</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>108078832</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>111QUINTRORG</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>Organic Tri-Color Quinoa - 25 lb.</t>
+        </is>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3</t>
+        </is>
+      </c>
+      <c r="H1333" t="n">
+        <v>62.11000000000001</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 26, 2025</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>108082685</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>697JWMH60GN</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>Lavex 60" Green Jaw Style Metal Mop Handle</t>
+        </is>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3</t>
+        </is>
+      </c>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> February 26, 2025</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>108082685</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>697QMH60GN</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>Lavex 60" Green Quick Release Metal Mop Handle</t>
+        </is>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1</t>
+        </is>
+      </c>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="n">
+        <v>7.99</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACE7F2C-82F3-4652-8558-0096C5449B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB027F5-4C0E-40ED-8C68-8535B844F4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="1707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222" uniqueCount="1774">
   <si>
     <t>Order Date</t>
   </si>
@@ -5144,6 +5144,207 @@
   </si>
   <si>
     <t>Lavex 60" Green Quick Release Metal Mop Handle</t>
+  </si>
+  <si>
+    <t>108099526</t>
+  </si>
+  <si>
+    <t>128HDLDBULK</t>
+  </si>
+  <si>
+    <t>Choice Heavy Duty Microwavable Translucent Plastic Deli Container Lid - 480/Case</t>
+  </si>
+  <si>
+    <t>8" x 8" x 2 1/2" White Customizable Pie / Bakery Box - 250/Bundle</t>
+  </si>
+  <si>
+    <t>711SPRNKLEYW</t>
+  </si>
+  <si>
+    <t>Adourne Yellow Sprinkles 10 lb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> February 27, 2025</t>
+  </si>
+  <si>
+    <t>108121876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 1, 2025</t>
+  </si>
+  <si>
+    <t>108209838</t>
+  </si>
+  <si>
+    <t>544SYPFR022F</t>
+  </si>
+  <si>
+    <t>Monin Premium Grenadine Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR007F</t>
+  </si>
+  <si>
+    <t>Monin Premium Blue Curacao Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR095F</t>
+  </si>
+  <si>
+    <t>Monin Premium Cucumber Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR036F</t>
+  </si>
+  <si>
+    <t>Monin Premium Peach Flavoring / Fruit Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR059F</t>
+  </si>
+  <si>
+    <t>Monin Premium Watermelon Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPAR047A</t>
+  </si>
+  <si>
+    <t>Monin Premium Amaretto Flavoring Syrup 750 mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 2, 2025</t>
+  </si>
+  <si>
+    <t>108236412</t>
+  </si>
+  <si>
+    <t>323CIRCL2012</t>
+  </si>
+  <si>
+    <t>Lavex 2" White Gloss Paper Permanent Round Inventory Label - 500/Roll</t>
+  </si>
+  <si>
+    <t>323CIRCL2015</t>
+  </si>
+  <si>
+    <t>Lavex 2" Fluorescent Pink Matte Paper Permanent Round Inventory Label - 500/Roll</t>
+  </si>
+  <si>
+    <t>323CIRCL2013</t>
+  </si>
+  <si>
+    <t>Lavex 2" Fluorescent Yellow Matte Paper Permanent Round Inventory Label - 500/Roll</t>
+  </si>
+  <si>
+    <t>323CIRCL2016</t>
+  </si>
+  <si>
+    <t>Lavex 2" Fluorescent Orange Matte Paper Permanent Round Inventory Label - 500/Roll</t>
+  </si>
+  <si>
+    <t>323CIRCL2017</t>
+  </si>
+  <si>
+    <t>Lavex 2" Light Blue Gloss Paper Permanent Round Inventory Label - 500/Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 4, 2025</t>
+  </si>
+  <si>
+    <t>108306423</t>
+  </si>
+  <si>
+    <t>5503181EU</t>
+  </si>
+  <si>
+    <t>Anchor Hocking 3181EU Regency 10.5 oz. Heavy Base Collins / Mojito Glass - 36/Case</t>
+  </si>
+  <si>
+    <t>176POURT</t>
+  </si>
+  <si>
+    <t>Acopa Stainless Steel Liquor Pourer with Tapered Speed Jet - 12/Pack</t>
+  </si>
+  <si>
+    <t>55316JARNH</t>
+  </si>
+  <si>
+    <t>Acopa Rustic Charm 16 oz. Customizable Drinking Jar / Mason Jar - 12/Case</t>
+  </si>
+  <si>
+    <t>21082123</t>
+  </si>
+  <si>
+    <t>Dexter-Russell 82123 24" Magnetic Knife Holder / Strip</t>
+  </si>
+  <si>
+    <t>544SYPFS045K</t>
+  </si>
+  <si>
+    <t>Monin Sugar Free Vanilla Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>108331763</t>
+  </si>
+  <si>
+    <t>544SYPFR072KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Wild Strawberry Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>124MLRP17</t>
+  </si>
+  <si>
+    <t>American Metalcraft MLRP17 Endurance 233 oz. Rectangular Melamine Serving Bowl</t>
+  </si>
+  <si>
+    <t>808724A</t>
+  </si>
+  <si>
+    <t>808BH857</t>
+  </si>
+  <si>
+    <t>247BT20157BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 5, 2025</t>
+  </si>
+  <si>
+    <t>108376182</t>
+  </si>
+  <si>
+    <t>271241CUTC</t>
+  </si>
+  <si>
+    <t>Choice 24 oz. #32 Natural Cotton Cut-End Wet Mop Head with 1" Headband - 12/Case</t>
+  </si>
+  <si>
+    <t>721696503</t>
+  </si>
+  <si>
+    <t>544SYPFR061K</t>
+  </si>
+  <si>
+    <t>Monin Premium Lavender Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR051K</t>
+  </si>
+  <si>
+    <t>Monin Premium Toffee Nut Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>3463318BK</t>
+  </si>
+  <si>
+    <t>108379159</t>
+  </si>
+  <si>
+    <t>544SYPFR042K</t>
+  </si>
+  <si>
+    <t>Monin Premium Strawberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
   </si>
 </sst>
 </file>
@@ -5204,7 +5405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5239,6 +5440,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5607,10 +5814,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1335"/>
+  <dimension ref="A1:H1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1314" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1314" sqref="A1314:G1335"/>
+    <sheetView tabSelected="1" topLeftCell="A1358" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1336" sqref="A1336:G1378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -27158,8 +27365,6 @@
       <c r="E1334" s="13" t="s">
         <v>1276</v>
       </c>
-      <c r="F1334"/>
-      <c r="G1334"/>
       <c r="H1334">
         <v>9.99</v>
       </c>
@@ -27180,10 +27385,952 @@
       <c r="E1335" s="13" t="s">
         <v>1248</v>
       </c>
-      <c r="F1335"/>
-      <c r="G1335"/>
       <c r="H1335">
         <v>7.99</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1336" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1336" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1336" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D1336" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E1336" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1336" s="15"/>
+      <c r="G1336" s="14"/>
+      <c r="H1336" s="13">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1337" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1337" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1337" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1337" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1337" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1337" s="15"/>
+      <c r="G1337" s="14"/>
+      <c r="H1337" s="13">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1338" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1338" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1338" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1338" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1338" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1338" s="15"/>
+      <c r="G1338" s="14"/>
+      <c r="H1338" s="13">
+        <v>94.990000000000009</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1339" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1339" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1339" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1339" s="13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E1339" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1339" s="15"/>
+      <c r="G1339" s="14"/>
+      <c r="H1339" s="13">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1340" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1340" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1340" s="13" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D1340" s="13" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E1340" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1340" s="15"/>
+      <c r="G1340" s="14"/>
+      <c r="H1340" s="13">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1341" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1341" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1341" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1341" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E1341" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1341" s="15"/>
+      <c r="G1341" s="14"/>
+      <c r="H1341" s="13">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1342" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1342" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1342" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1342" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1342" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1342" s="15"/>
+      <c r="G1342" s="14"/>
+      <c r="H1342" s="13">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1343" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1343" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1343" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1343" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="E1343" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1343" s="15"/>
+      <c r="G1343" s="14"/>
+      <c r="H1343" s="13">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1344" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1344" s="13" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1344" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1344" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E1344" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1344" s="15"/>
+      <c r="G1344" s="14"/>
+      <c r="H1344" s="13">
+        <v>164.99</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1345" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1345" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1345" s="13" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D1345" s="13" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1345" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1345" s="15"/>
+      <c r="G1345" s="14"/>
+      <c r="H1345" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1346" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1346" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1346" s="13" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D1346" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1346" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1346" s="15"/>
+      <c r="G1346" s="14"/>
+      <c r="H1346" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1347" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1347" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1347" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1347" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1347" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1347" s="15"/>
+      <c r="G1347" s="14"/>
+      <c r="H1347" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1348" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1348" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1348" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D1348" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E1348" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1348" s="15"/>
+      <c r="G1348" s="14"/>
+      <c r="H1348" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1349" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1349" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1349" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D1349" s="13" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E1349" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1349" s="15"/>
+      <c r="G1349" s="14"/>
+      <c r="H1349" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1350" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1350" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1350" s="13" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1350" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1350" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1350" s="15"/>
+      <c r="G1350" s="14"/>
+      <c r="H1350" s="13">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1351" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1351" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1351" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D1351" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E1351" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1351" s="15"/>
+      <c r="G1351" s="14"/>
+      <c r="H1351" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1352" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1352" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1352" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D1352" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E1352" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1352" s="15"/>
+      <c r="G1352" s="14"/>
+      <c r="H1352" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1353" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1353" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1353" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D1353" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E1353" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1353" s="15"/>
+      <c r="G1353" s="14"/>
+      <c r="H1353" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1354" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1354" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1354" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D1354" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E1354" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1354" s="15"/>
+      <c r="G1354" s="14"/>
+      <c r="H1354" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1355" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B1355" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1355" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D1355" s="13" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E1355" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1355" s="15"/>
+      <c r="G1355" s="14"/>
+      <c r="H1355" s="13">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1356" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1356" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1356" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D1356" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E1356" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1356" s="15"/>
+      <c r="G1356" s="14"/>
+      <c r="H1356" s="13">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1357" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1357" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1357" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D1357" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E1357" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1357" s="15"/>
+      <c r="G1357" s="14"/>
+      <c r="H1357" s="13">
+        <v>6.5900000000000007</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1358" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1358" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1358" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D1358" s="13" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E1358" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1358" s="15"/>
+      <c r="G1358" s="14"/>
+      <c r="H1358" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1359" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1359" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1359" s="13" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D1359" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E1359" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1359" s="15"/>
+      <c r="G1359" s="14"/>
+      <c r="H1359" s="13">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1360" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1360" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1360" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1360" s="13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E1360" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1360" s="15"/>
+      <c r="G1360" s="14"/>
+      <c r="H1360" s="13">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1361" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1361" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1361" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1361" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1361" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1361" s="15"/>
+      <c r="G1361" s="14"/>
+      <c r="H1361" s="13">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1362" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1362" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1362" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1362" s="13" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E1362" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1362" s="15"/>
+      <c r="G1362" s="14"/>
+      <c r="H1362" s="13">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1363" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1363" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1363" s="13" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D1363" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E1363" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1363" s="15"/>
+      <c r="G1363" s="14"/>
+      <c r="H1363" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1364" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1364" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1364" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D1364" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E1364" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1364" s="15"/>
+      <c r="G1364" s="14"/>
+      <c r="H1364" s="13">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1365" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1365" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1365" s="13" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1365" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="E1365" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F1365" s="15"/>
+      <c r="G1365" s="14"/>
+      <c r="H1365" s="13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1366" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1366" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1366" s="13" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1366" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1366" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1366" s="15"/>
+      <c r="G1366" s="14"/>
+      <c r="H1366" s="13">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1367" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1367" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1367" s="13" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1367" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1367" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F1367" s="15"/>
+      <c r="G1367" s="14"/>
+      <c r="H1367" s="13">
+        <v>5.9899999999999993</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1368" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B1368" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1368" s="13" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D1368" s="13" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1368" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1368" s="15"/>
+      <c r="G1368" s="14"/>
+      <c r="H1368" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1369" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1369" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1369" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1369" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1369" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1369" s="15"/>
+      <c r="G1369" s="14"/>
+      <c r="H1369" s="13">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1370" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1370" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1370" s="13" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D1370" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E1370" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1370" s="15"/>
+      <c r="G1370" s="14"/>
+      <c r="H1370" s="13">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1371" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1371" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1371" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1371" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1371" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1371" s="15"/>
+      <c r="G1371" s="14"/>
+      <c r="H1371" s="13">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1372" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1372" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1372" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D1372" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1372" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1372" s="15"/>
+      <c r="G1372" s="14"/>
+      <c r="H1372" s="13">
+        <v>55.28</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1373" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1373" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1373" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1373" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1373" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1373" s="15"/>
+      <c r="G1373" s="14"/>
+      <c r="H1373" s="13">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1374" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1374" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1374" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1374" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1374" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1374" s="15"/>
+      <c r="G1374" s="14"/>
+      <c r="H1374" s="13">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1375" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1375" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1375" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1375" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1375" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1375" s="15"/>
+      <c r="G1375" s="14"/>
+      <c r="H1375" s="13">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1376" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1376" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1376" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1376" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1376" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1376" s="15"/>
+      <c r="G1376" s="14"/>
+      <c r="H1376" s="13">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1377" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1377" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1377" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1377" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1377" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1377" s="15"/>
+      <c r="G1377" s="14"/>
+      <c r="H1377" s="13">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1378" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1378" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1378" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D1378" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1378" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1378" s="13">
+        <v>37.99</v>
       </c>
     </row>
   </sheetData>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB027F5-4C0E-40ED-8C68-8535B844F4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991B5D33-9B5C-4CD9-862E-5219EC2C7683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222" uniqueCount="1774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6392" uniqueCount="1816">
   <si>
     <t>Order Date</t>
   </si>
@@ -5345,6 +5345,132 @@
   </si>
   <si>
     <t>Monin Premium Strawberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 10, 2025</t>
+  </si>
+  <si>
+    <t>108538134</t>
+  </si>
+  <si>
+    <t>409ML90360</t>
+  </si>
+  <si>
+    <t>Mona Lisa Petit Four Marbled Chocolate Tulip Cup - 152/Box</t>
+  </si>
+  <si>
+    <t>176APRONVBLK</t>
+  </si>
+  <si>
+    <t>Choice Black 38 Mil Heavy Weight Vinyl Dishwasher Apron - 40" x 25"</t>
+  </si>
+  <si>
+    <t>100CRAY4PKBX</t>
+  </si>
+  <si>
+    <t>Choice 4 Pack Kids' Restaurant Crayons in Print Box - 100/Case</t>
+  </si>
+  <si>
+    <t>711MAVYELLOW</t>
+  </si>
+  <si>
+    <t>108542341</t>
+  </si>
+  <si>
+    <t>245S12FU10R</t>
+  </si>
+  <si>
+    <t>725CM5435</t>
+  </si>
+  <si>
+    <t>Chefmaster 10.5 oz. Leaf Green Liqua-Gel Food Coloring</t>
+  </si>
+  <si>
+    <t>725CM5490</t>
+  </si>
+  <si>
+    <t>Chefmaster 10.5 oz. Lemon Yellow Liqua-Gel Food Coloring</t>
+  </si>
+  <si>
+    <t>725CM5759</t>
+  </si>
+  <si>
+    <t>Chefmaster 10.5 oz. Neon Brite Pink Liqua-Gel Food Coloring</t>
+  </si>
+  <si>
+    <t>725CM5477</t>
+  </si>
+  <si>
+    <t>Chefmaster 10.5 oz. Super Red Liqua-Gel Food Coloring</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 11, 2025</t>
+  </si>
+  <si>
+    <t>108603925</t>
+  </si>
+  <si>
+    <t>580THERM</t>
+  </si>
+  <si>
+    <t>96515546</t>
+  </si>
+  <si>
+    <t>Vitamix 15546 Drive Socket Set for BarBoss, Drink Machine, Blending Station, Portion Blending System, Vita-Prep, and Vita-Pro Series - 2/Pack</t>
+  </si>
+  <si>
+    <t>Vitamix 1195 64 oz. Clear Tritan™ Copolyester Blender Jar with Lid and Wet Blade Assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 12, 2025</t>
+  </si>
+  <si>
+    <t>108642953</t>
+  </si>
+  <si>
+    <t>544SYPFR013F</t>
+  </si>
+  <si>
+    <t>544SYPFR042F</t>
+  </si>
+  <si>
+    <t>544SYPFR063F</t>
+  </si>
+  <si>
+    <t>Monin Premium White Chocolate Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544FRTRP066KT</t>
+  </si>
+  <si>
+    <t>Monin 1 Liter Guava Fruit Puree - 4/Case</t>
+  </si>
+  <si>
+    <t>108647724</t>
+  </si>
+  <si>
+    <t>8" x 8" x 5" White Customizable Cake / Bakery Box - 100/Bundle</t>
+  </si>
+  <si>
+    <t>108650013</t>
+  </si>
+  <si>
+    <t>544SYPFR069F</t>
+  </si>
+  <si>
+    <t>Monin Premium Blood Orange Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR147F</t>
+  </si>
+  <si>
+    <t>Monin Premium Elderflower Flavoring Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544SYPFR049F</t>
+  </si>
+  <si>
+    <t>Monin Premium Granny Smith Apple Flavoring / Fruit Syrup 1 Liter</t>
   </si>
 </sst>
 </file>
@@ -5814,10 +5940,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1378"/>
+  <dimension ref="A1:H1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1358" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1336" sqref="A1336:G1378"/>
+    <sheetView tabSelected="1" topLeftCell="A1391" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1380" sqref="A1380:G1412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -28333,6 +28459,740 @@
         <v>37.99</v>
       </c>
     </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1379">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1380" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1380" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1380" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D1380" s="13" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E1380" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1380" s="15"/>
+      <c r="G1380" s="14"/>
+      <c r="H1380" s="13">
+        <v>186.49</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1381" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1381" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1381" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1381" s="13" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E1381" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1381" s="15"/>
+      <c r="G1381" s="14"/>
+      <c r="H1381" s="13">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1382" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1382" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1382" s="13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1382" s="13" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1382" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1382" s="15"/>
+      <c r="G1382" s="14"/>
+      <c r="H1382" s="13">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1383" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1383" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1383" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1383" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1383" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1383" s="15"/>
+      <c r="G1383" s="14"/>
+      <c r="H1383" s="13">
+        <v>123.47</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1384" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1384" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1384" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1384" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E1384" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1384" s="15"/>
+      <c r="G1384" s="14"/>
+      <c r="H1384" s="13">
+        <v>316.99</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1385" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1385" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1385" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D1385" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1385" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1385" s="15"/>
+      <c r="G1385" s="14"/>
+      <c r="H1385" s="13">
+        <v>55.49</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1386" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1386" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1386" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1386" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1386" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1386" s="15"/>
+      <c r="G1386" s="14"/>
+      <c r="H1386" s="13">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1387" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1387" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1387" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D1387" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="E1387" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1387" s="15"/>
+      <c r="G1387" s="14"/>
+      <c r="H1387" s="13">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1388" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1388" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1388" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1388" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1388" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1388" s="15"/>
+      <c r="G1388" s="14"/>
+      <c r="H1388" s="13">
+        <v>38.49</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1389" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1389" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1389" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D1389" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1389" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1389" s="15"/>
+      <c r="G1389" s="14"/>
+      <c r="H1389" s="13">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1390" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1390" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1390" s="13" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D1390" s="13" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E1390" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1390" s="15"/>
+      <c r="G1390" s="14"/>
+      <c r="H1390" s="13">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1391" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1391" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1391" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1391" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E1391" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1391" s="15"/>
+      <c r="G1391" s="14"/>
+      <c r="H1391" s="13">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1392" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1392" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1392" s="13" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1392" s="13" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E1392" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1392" s="15"/>
+      <c r="G1392" s="14"/>
+      <c r="H1392" s="13">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1393" s="13" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1393" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1393" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D1393" s="13" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1393" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1393" s="15"/>
+      <c r="G1393" s="14"/>
+      <c r="H1393" s="13">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1394" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1394" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1394" s="13" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1394" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1394" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F1394" s="15"/>
+      <c r="G1394" s="14"/>
+      <c r="H1394" s="13">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1395" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1395" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1395" s="13" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D1395" s="13" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E1395" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1395" s="15"/>
+      <c r="G1395" s="14"/>
+      <c r="H1395" s="13">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1396" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1396" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1396" s="13" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1396" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E1396" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1396" s="15"/>
+      <c r="G1396" s="14"/>
+      <c r="H1396" s="13">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1397" s="13" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1397" s="13" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1397" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D1397" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1397" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1397" s="15"/>
+      <c r="G1397" s="14"/>
+      <c r="H1397" s="13">
+        <v>116.99</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1398" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1398" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1398" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1398" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E1398" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1398" s="15"/>
+      <c r="G1398" s="14"/>
+      <c r="H1398" s="13">
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1399" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1399" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1399" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D1399" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1399" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1399" s="15"/>
+      <c r="G1399" s="14"/>
+      <c r="H1399" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1400" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1400" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1400" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1400" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="E1400" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1400" s="15"/>
+      <c r="G1400" s="14"/>
+      <c r="H1400" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1401" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1401" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1401" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1401" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1401" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1401" s="15"/>
+      <c r="G1401" s="14"/>
+      <c r="H1401" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1402" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1402" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1402" s="13" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D1402" s="13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E1402" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F1402" s="15"/>
+      <c r="G1402" s="14"/>
+      <c r="H1402" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1403" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1403" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1403" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1403" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1403" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1403" s="15"/>
+      <c r="G1403" s="14"/>
+      <c r="H1403" s="13">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1404" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1404" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1404" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D1404" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1404" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1404" s="15"/>
+      <c r="G1404" s="14"/>
+      <c r="H1404" s="13">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1405" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1405" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1405" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1405" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E1405" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1405" s="15"/>
+      <c r="G1405" s="14"/>
+      <c r="H1405" s="13">
+        <v>72.489999999999995</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1406" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1406" s="13" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1406" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1406" s="13" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1406" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1406" s="15"/>
+      <c r="G1406" s="14"/>
+      <c r="H1406" s="13">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1407" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1407" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1407" s="13" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D1407" s="13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1407" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1407" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1408" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1408" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1408" s="13" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D1408" s="13" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E1408" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1408" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1409" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1409" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1409" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1409" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1409" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1409" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1410" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1410" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1410" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D1410" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E1410" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1410" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1411" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1411" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1411" s="13" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D1411" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E1411" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1411" s="13">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1412" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1412" s="13" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1412" s="13" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1412" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1412" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1412" s="13">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152722D2-FCEE-453A-8491-38C5E89DBD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D7289-CBA7-4815-8E13-FF619880167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="2340" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6507" uniqueCount="1844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6602" uniqueCount="1864">
   <si>
     <t>Order Date</t>
   </si>
@@ -5555,6 +5555,66 @@
   </si>
   <si>
     <t>544SYPFR084F</t>
+  </si>
+  <si>
+    <t>108929702</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 23, 2025</t>
+  </si>
+  <si>
+    <t>109047218</t>
+  </si>
+  <si>
+    <t>Choice 2 oz. Clear PET Parfait Insert - 1,000/Case</t>
+  </si>
+  <si>
+    <t>Fabri-Kal Alur 5 oz. Recycled Clear PET Plastic Round Deli Container - 1,000/Case</t>
+  </si>
+  <si>
+    <t>433BSD11875</t>
+  </si>
+  <si>
+    <t>60573836</t>
+  </si>
+  <si>
+    <t>Paraclipse 73836 Insect Inn Ultra Two Replacement Cartridge for Insect / Bug Trap</t>
+  </si>
+  <si>
+    <t>176POURCOVER</t>
+  </si>
+  <si>
+    <t>Choice Translucent Universal Liquor Pourer Cover - 12/Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 24, 2025</t>
+  </si>
+  <si>
+    <t>109072000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 25, 2025</t>
+  </si>
+  <si>
+    <t>109124391</t>
+  </si>
+  <si>
+    <t>245CBB25183BL</t>
+  </si>
+  <si>
+    <t>110TWN13540KT</t>
+  </si>
+  <si>
+    <t>Twinings Earl Grey with Lavender Tea Bags - 120/Case</t>
+  </si>
+  <si>
+    <t>110TWN05328KT</t>
+  </si>
+  <si>
+    <t>Twinings Irish Breakfast Tea Bags - 120/Case</t>
+  </si>
+  <si>
+    <t>109140461</t>
   </si>
 </sst>
 </file>
@@ -5615,7 +5675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5659,6 +5719,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6027,10 +6088,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1435"/>
+  <dimension ref="A1:H1454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1423" sqref="A1423:G1435"/>
+    <sheetView tabSelected="1" topLeftCell="A1423" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1436" sqref="A1436:G1454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -29754,6 +29815,406 @@
         <v>58.99</v>
       </c>
     </row>
+    <row r="1436" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1436" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1436" s="17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1436" s="17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1436" s="17" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E1436" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1436" s="3"/>
+      <c r="H1436">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1437" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1437" s="17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1437" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1437" s="17" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E1437" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1437" s="3"/>
+      <c r="H1437">
+        <v>47.28</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1438" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1438" s="17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1438" s="17" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1438" s="17" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1438" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1438" s="3"/>
+      <c r="H1438">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1439" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1439" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1439" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1439" s="17" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E1439" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1439" s="3"/>
+      <c r="H1439">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1440" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1440" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1440" s="17" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1440" s="17" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E1440" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1440" s="3"/>
+      <c r="H1440">
+        <v>97.99</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1441" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1441" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1441" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1441" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1441" s="17" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F1441" s="3"/>
+      <c r="H1441">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1442" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1442" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1442" s="17" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D1442" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1442" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1442" s="3"/>
+      <c r="H1442">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1443" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1443" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1443" s="17" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D1443" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E1443" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1443" s="3"/>
+      <c r="H1443">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1444" s="17" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1444" s="17" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1444" s="17" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D1444" s="17" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E1444" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1444" s="3"/>
+      <c r="H1444">
+        <v>148.04</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1445" s="17" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1445" s="17" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1445" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1445" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1445" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1445" s="3"/>
+      <c r="H1445">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1446" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1446" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1446" s="17" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1446" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1446" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1446" s="3"/>
+      <c r="H1446">
+        <v>113.35</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1447" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1447" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1447" s="17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1447" s="17" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E1447" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1447" s="3"/>
+      <c r="H1447">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1448" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1448" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1448" s="17" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D1448" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1448" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1448" s="3"/>
+      <c r="H1448">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1449" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1449" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1449" s="17" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D1449" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="E1449" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1449" s="3"/>
+      <c r="H1449">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1450" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1450" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1450" s="17" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D1450" s="17" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E1450" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1450" s="3"/>
+      <c r="H1450">
+        <v>86.99</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1451" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1451" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1451" s="17" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1451" s="17" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1451" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1451" s="3"/>
+      <c r="H1451">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1452" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1452" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1452" s="17" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D1452" s="17" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E1452" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1452" s="3"/>
+      <c r="H1452">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1453" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1453" s="17" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1453" s="17" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1453" s="17" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E1453" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1453" s="3"/>
+      <c r="H1453">
+        <v>478.49</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1454" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1454" s="17" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1454" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1454" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E1454" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1454" s="17"/>
+      <c r="G1454" s="17"/>
+      <c r="H1454">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8887F7-CFFF-4469-BE22-2A1AD1524924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB983ABF-B82E-4515-A4D3-CC33F2A2DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7920" yWindow="6180" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6787" uniqueCount="1910">
   <si>
     <t>Order Date</t>
   </si>
@@ -5645,6 +5645,114 @@
   </si>
   <si>
     <t>Vitamix 15504 48 oz. Clear Tritan™ Copolyester Blender Jar with Lid and Wet Blade Assembly for Vitamix Blenders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 27, 2025</t>
+  </si>
+  <si>
+    <t>109231519</t>
+  </si>
+  <si>
+    <t>101SHT106115</t>
+  </si>
+  <si>
+    <t>Stratas Primex Golden Flex All-Purpose Shortening 50 lb.</t>
+  </si>
+  <si>
+    <t>102SALT50</t>
+  </si>
+  <si>
+    <t>Morton 50 lb. Bulk Non-Iodized Table Salt</t>
+  </si>
+  <si>
+    <t>874RE32056</t>
+  </si>
+  <si>
+    <t>Clover Dale 1 Lb. Salted Grade AA Butter Solid - 36/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 30, 2025</t>
+  </si>
+  <si>
+    <t>109312954</t>
+  </si>
+  <si>
+    <t>Baker's Lane 16" x 24" Full Size Silicone Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1,000/Case</t>
+  </si>
+  <si>
+    <t>92247142</t>
+  </si>
+  <si>
+    <t>109320678</t>
+  </si>
+  <si>
+    <t>725RRP15B09</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Purple Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t>725RRP15B04</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Pink Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t>725RRP15B05</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Brilliant Blue Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 31, 2025</t>
+  </si>
+  <si>
+    <t>109352110</t>
+  </si>
+  <si>
+    <t>544SYPFR006KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Blackberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR247KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Cookie Butter Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>109361281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 1, 2025</t>
+  </si>
+  <si>
+    <t>109411896</t>
+  </si>
+  <si>
+    <t>Durable Packaging BB4224N 24" x 4 1/2" x 2 1/2" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
+  </si>
+  <si>
+    <t>245CCGR1410BL</t>
+  </si>
+  <si>
+    <t>10207088</t>
+  </si>
+  <si>
+    <t>544SYPFR035F</t>
+  </si>
+  <si>
+    <t>Monin Premium Passion Fruit Flavoring / Fruit Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544FRTRP248F</t>
+  </si>
+  <si>
+    <t>Monin 1 Liter Yuzu Fruit Puree</t>
+  </si>
+  <si>
+    <t>Durable Packaging BB6218N 18" x 6" x 3 1/4" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
   </si>
 </sst>
 </file>
@@ -5655,7 +5763,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5683,6 +5791,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5705,7 +5819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5748,6 +5862,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6117,10 +6238,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1460"/>
+  <dimension ref="A1:H1510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1435" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1460" sqref="A1436:G1460"/>
+    <sheetView tabSelected="1" topLeftCell="A1462" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1466" sqref="A1466:G1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -30386,6 +30507,849 @@
         <v>39.99</v>
       </c>
     </row>
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1461">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1462">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1463">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1464">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1465">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1466" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1466" s="13" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1466" s="13" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1466" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1466" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1466" s="15"/>
+      <c r="G1466" s="14"/>
+      <c r="H1466" s="17">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1467" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1467" s="13" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1467" s="13" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1467" s="13" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1467" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1467" s="15"/>
+      <c r="G1467" s="14"/>
+      <c r="H1467" s="17">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1468" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1468" s="13" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1468" s="13" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D1468" s="13" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E1468" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1468" s="15"/>
+      <c r="G1468" s="14"/>
+      <c r="H1468" s="17">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1469" s="13" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1469" s="13" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1469" s="13" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1469" s="13" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E1469" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1469" s="15"/>
+      <c r="G1469" s="14"/>
+      <c r="H1469" s="17">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1470" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1470" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1470" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1470" s="13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E1470" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1470" s="15"/>
+      <c r="G1470" s="14"/>
+      <c r="H1470" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1471" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1471" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1471" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1471" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1471" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1471" s="15"/>
+      <c r="G1471" s="14"/>
+      <c r="H1471" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1472" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1472" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1472" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1472" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1472" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1472" s="15"/>
+      <c r="G1472" s="14"/>
+      <c r="H1472" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1473" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1473" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1473" s="13" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1473" s="13" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1473" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1473" s="15"/>
+      <c r="G1473" s="14"/>
+      <c r="H1473" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1474" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1474" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1474" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1474" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1474" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1474" s="15"/>
+      <c r="G1474" s="14"/>
+      <c r="H1474" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1475" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1475" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1475" s="13" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D1475" s="13" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E1475" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1475" s="15"/>
+      <c r="G1475" s="14"/>
+      <c r="H1475" s="17">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1476" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1476" s="13" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1476" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1476" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1476" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1476" s="15"/>
+      <c r="G1476" s="14"/>
+      <c r="H1476" s="17">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1477" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1477" s="13" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1477" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D1477" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1477" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1477" s="15"/>
+      <c r="G1477" s="14"/>
+      <c r="H1477" s="17">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1478" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1478" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1478" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1478" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1478" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1478" s="13"/>
+      <c r="G1478" s="13"/>
+      <c r="H1478" s="17">
+        <v>43.99</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1479" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1479" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1479" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1479" s="13" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E1479" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1479" s="13"/>
+      <c r="G1479" s="13"/>
+      <c r="H1479" s="17">
+        <v>118.99</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1480" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1480" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1480" s="13" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1480" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E1480" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1480" s="13"/>
+      <c r="G1480" s="13"/>
+      <c r="H1480" s="17">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1481" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1481" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1481" s="13" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1481" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1481" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1481" s="13"/>
+      <c r="G1481" s="13"/>
+      <c r="H1481" s="17">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1482" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1482" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1482" s="13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D1482" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1482" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1482" s="13"/>
+      <c r="G1482" s="13"/>
+      <c r="H1482" s="17">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1483" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1483" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1483" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1483" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1483" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1483" s="13"/>
+      <c r="G1483" s="13"/>
+      <c r="H1483" s="17">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1484" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1484" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1484" s="13" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1484" s="13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1484" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1484" s="13"/>
+      <c r="G1484" s="13"/>
+      <c r="H1484" s="17">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1485" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1485" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1485" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1485" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1485" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1485" s="13"/>
+      <c r="G1485" s="13"/>
+      <c r="H1485" s="17">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1486" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1486" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1486" s="13" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1486" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1486" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1486" s="13"/>
+      <c r="G1486" s="13"/>
+      <c r="H1486" s="17">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1487" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1487" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1487" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1487" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1487" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1487" s="13"/>
+      <c r="G1487" s="13"/>
+      <c r="H1487" s="17">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1488" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1488" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1488" s="13" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1488" s="13" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1488" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1488" s="13"/>
+      <c r="G1488" s="13"/>
+      <c r="H1488" s="17">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1489" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1489" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1489" s="13" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D1489" s="13" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1489" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1489" s="13"/>
+      <c r="G1489" s="13"/>
+      <c r="H1489" s="17">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1490" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1490" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1490" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D1490" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1490" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1490" s="13"/>
+      <c r="G1490" s="13"/>
+      <c r="H1490" s="17">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1491" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1491" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D1491" s="13" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E1491" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1491" s="13"/>
+      <c r="G1491" s="13"/>
+      <c r="H1491" s="17">
+        <v>104.99</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1492" s="15"/>
+      <c r="B1492" s="18"/>
+      <c r="C1492" s="18"/>
+      <c r="D1492" s="19"/>
+      <c r="E1492" s="18"/>
+      <c r="F1492" s="18"/>
+      <c r="G1492" s="14"/>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1493" s="15"/>
+      <c r="B1493" s="18"/>
+      <c r="C1493" s="18"/>
+      <c r="D1493" s="19"/>
+      <c r="E1493" s="18"/>
+      <c r="F1493" s="18"/>
+      <c r="G1493" s="14"/>
+    </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1494" s="15"/>
+      <c r="B1494" s="18"/>
+      <c r="C1494" s="18"/>
+      <c r="D1494" s="19"/>
+      <c r="E1494" s="18"/>
+      <c r="F1494" s="18"/>
+      <c r="G1494" s="14"/>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1495" s="15"/>
+      <c r="B1495" s="18"/>
+      <c r="C1495" s="18"/>
+      <c r="D1495" s="19"/>
+      <c r="E1495" s="18"/>
+      <c r="F1495" s="18"/>
+      <c r="G1495" s="14"/>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1496" s="15"/>
+      <c r="B1496" s="18"/>
+      <c r="C1496" s="18"/>
+      <c r="D1496" s="19"/>
+      <c r="E1496" s="18"/>
+      <c r="F1496" s="18"/>
+      <c r="G1496" s="14"/>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1497" s="15"/>
+      <c r="B1497" s="18"/>
+      <c r="C1497" s="18"/>
+      <c r="D1497" s="19"/>
+      <c r="E1497" s="18"/>
+      <c r="F1497" s="18"/>
+      <c r="G1497" s="14"/>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1498" s="15"/>
+      <c r="B1498" s="18"/>
+      <c r="C1498" s="18"/>
+      <c r="D1498" s="19"/>
+      <c r="E1498" s="18"/>
+      <c r="F1498" s="18"/>
+      <c r="G1498" s="14"/>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1499" s="15"/>
+      <c r="B1499" s="18"/>
+      <c r="C1499" s="18"/>
+      <c r="D1499" s="19"/>
+      <c r="E1499" s="18"/>
+      <c r="F1499" s="18"/>
+      <c r="G1499" s="14"/>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1500" s="15"/>
+      <c r="B1500" s="18"/>
+      <c r="C1500" s="18"/>
+      <c r="D1500" s="19"/>
+      <c r="E1500" s="18"/>
+      <c r="F1500" s="18"/>
+      <c r="G1500" s="14"/>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1501" s="15"/>
+      <c r="B1501" s="18"/>
+      <c r="C1501" s="18"/>
+      <c r="D1501" s="19"/>
+      <c r="E1501" s="18"/>
+      <c r="F1501" s="18"/>
+      <c r="G1501" s="14"/>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1502" s="15"/>
+      <c r="B1502" s="18"/>
+      <c r="C1502" s="18"/>
+      <c r="D1502" s="19"/>
+      <c r="E1502" s="18"/>
+      <c r="F1502" s="18"/>
+      <c r="G1502" s="14"/>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1503" s="15"/>
+      <c r="B1503" s="18"/>
+      <c r="C1503" s="18"/>
+      <c r="D1503" s="19"/>
+      <c r="E1503" s="18"/>
+      <c r="F1503" s="18"/>
+      <c r="G1503" s="14"/>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1504" s="15"/>
+      <c r="B1504" s="18"/>
+      <c r="C1504" s="18"/>
+      <c r="D1504" s="19"/>
+      <c r="E1504" s="18"/>
+      <c r="F1504" s="18"/>
+      <c r="G1504" s="14"/>
+    </row>
+    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1505" s="15"/>
+      <c r="B1505" s="18"/>
+      <c r="C1505" s="18"/>
+      <c r="D1505" s="19"/>
+      <c r="E1505" s="18"/>
+      <c r="F1505" s="18"/>
+      <c r="G1505" s="14"/>
+    </row>
+    <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1506" s="15"/>
+      <c r="B1506" s="18"/>
+      <c r="C1506" s="18"/>
+      <c r="D1506" s="19"/>
+      <c r="E1506" s="18"/>
+      <c r="F1506" s="18"/>
+      <c r="G1506" s="14"/>
+    </row>
+    <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1507" s="15"/>
+      <c r="B1507" s="18"/>
+      <c r="C1507" s="18"/>
+      <c r="D1507" s="19"/>
+      <c r="E1507" s="18"/>
+      <c r="F1507" s="18"/>
+      <c r="G1507" s="14"/>
+    </row>
+    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1508" s="15"/>
+      <c r="B1508" s="18"/>
+      <c r="C1508" s="18"/>
+      <c r="D1508" s="19"/>
+      <c r="E1508" s="18"/>
+      <c r="F1508" s="18"/>
+      <c r="G1508" s="14"/>
+    </row>
+    <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1509" s="15"/>
+      <c r="B1509" s="18"/>
+      <c r="C1509" s="18"/>
+      <c r="D1509" s="19"/>
+      <c r="E1509" s="18"/>
+      <c r="F1509" s="18"/>
+      <c r="G1509" s="14"/>
+    </row>
+    <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1510" s="15"/>
+      <c r="B1510" s="18"/>
+      <c r="C1510" s="18"/>
+      <c r="D1510" s="19"/>
+      <c r="E1510" s="18"/>
+      <c r="F1510" s="18"/>
+      <c r="G1510" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB983ABF-B82E-4515-A4D3-CC33F2A2DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8887F7-CFFF-4469-BE22-2A1AD1524924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7920" yWindow="6180" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6787" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1874">
   <si>
     <t>Order Date</t>
   </si>
@@ -5645,114 +5645,6 @@
   </si>
   <si>
     <t>Vitamix 15504 48 oz. Clear Tritan™ Copolyester Blender Jar with Lid and Wet Blade Assembly for Vitamix Blenders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> March 27, 2025</t>
-  </si>
-  <si>
-    <t>109231519</t>
-  </si>
-  <si>
-    <t>101SHT106115</t>
-  </si>
-  <si>
-    <t>Stratas Primex Golden Flex All-Purpose Shortening 50 lb.</t>
-  </si>
-  <si>
-    <t>102SALT50</t>
-  </si>
-  <si>
-    <t>Morton 50 lb. Bulk Non-Iodized Table Salt</t>
-  </si>
-  <si>
-    <t>874RE32056</t>
-  </si>
-  <si>
-    <t>Clover Dale 1 Lb. Salted Grade AA Butter Solid - 36/Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> March 30, 2025</t>
-  </si>
-  <si>
-    <t>109312954</t>
-  </si>
-  <si>
-    <t>Baker's Lane 16" x 24" Full Size Silicone Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1,000/Case</t>
-  </si>
-  <si>
-    <t>92247142</t>
-  </si>
-  <si>
-    <t>109320678</t>
-  </si>
-  <si>
-    <t>725RRP15B09</t>
-  </si>
-  <si>
-    <t>Roxy &amp; Rich Purple Fat Dispersible Dust 15 grams</t>
-  </si>
-  <si>
-    <t>725RRP15B04</t>
-  </si>
-  <si>
-    <t>Roxy &amp; Rich Pink Fat Dispersible Dust 15 grams</t>
-  </si>
-  <si>
-    <t>725RRP15B05</t>
-  </si>
-  <si>
-    <t>Roxy &amp; Rich Brilliant Blue Fat Dispersible Dust 15 grams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> March 31, 2025</t>
-  </si>
-  <si>
-    <t>109352110</t>
-  </si>
-  <si>
-    <t>544SYPFR006KT</t>
-  </si>
-  <si>
-    <t>Monin Premium Blackberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
-  </si>
-  <si>
-    <t>544SYPFR247KT</t>
-  </si>
-  <si>
-    <t>Monin Premium Cookie Butter Flavoring Syrup 1 Liter - 4/Case</t>
-  </si>
-  <si>
-    <t>109361281</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> April 1, 2025</t>
-  </si>
-  <si>
-    <t>109411896</t>
-  </si>
-  <si>
-    <t>Durable Packaging BB4224N 24" x 4 1/2" x 2 1/2" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
-  </si>
-  <si>
-    <t>245CCGR1410BL</t>
-  </si>
-  <si>
-    <t>10207088</t>
-  </si>
-  <si>
-    <t>544SYPFR035F</t>
-  </si>
-  <si>
-    <t>Monin Premium Passion Fruit Flavoring / Fruit Syrup 1 Liter</t>
-  </si>
-  <si>
-    <t>544FRTRP248F</t>
-  </si>
-  <si>
-    <t>Monin 1 Liter Yuzu Fruit Puree</t>
-  </si>
-  <si>
-    <t>Durable Packaging BB6218N 18" x 6" x 3 1/4" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
   </si>
 </sst>
 </file>
@@ -5763,7 +5655,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5791,12 +5683,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5819,7 +5705,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5862,13 +5748,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6238,10 +6117,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1510"/>
+  <dimension ref="A1:H1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1462" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1466" sqref="A1466:G1510"/>
+    <sheetView tabSelected="1" topLeftCell="A1435" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1460" sqref="A1436:G1460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -30507,849 +30386,6 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1461" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D1461" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E1461" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H1461">
-        <v>96.49</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1462" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1462" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D1462" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E1462" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H1462">
-        <v>13.49</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1463" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B1463" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D1463" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E1463" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H1463">
-        <v>133.38</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1464" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1464" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C1464" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D1464" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1464" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H1464">
-        <v>72.989999999999995</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1465" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1465" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D1465" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E1465" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H1465">
-        <v>76.989999999999995</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1466" s="13" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1466" s="13" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C1466" s="13" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D1466" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="E1466" s="13" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1466" s="15"/>
-      <c r="G1466" s="14"/>
-      <c r="H1466" s="17">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1467" s="13" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1467" s="13" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C1467" s="13" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D1467" s="13" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E1467" s="13" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1467" s="15"/>
-      <c r="G1467" s="14"/>
-      <c r="H1467" s="17">
-        <v>10.99</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1468" s="13" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1468" s="13" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C1468" s="13" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D1468" s="13" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E1468" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F1468" s="15"/>
-      <c r="G1468" s="14"/>
-      <c r="H1468" s="17">
-        <v>10.99</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1469" s="13" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B1469" s="13" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C1469" s="13" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D1469" s="13" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E1469" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F1469" s="15"/>
-      <c r="G1469" s="14"/>
-      <c r="H1469" s="17">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1470" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1470" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1470" s="13" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D1470" s="13" t="s">
-        <v>1752</v>
-      </c>
-      <c r="E1470" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1470" s="15"/>
-      <c r="G1470" s="14"/>
-      <c r="H1470" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1471" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1471" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1471" s="13" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D1471" s="13" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E1471" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F1471" s="15"/>
-      <c r="G1471" s="14"/>
-      <c r="H1471" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1472" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1472" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1472" s="13" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D1472" s="13" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E1472" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1472" s="15"/>
-      <c r="G1472" s="14"/>
-      <c r="H1472" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1473" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1473" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1473" s="13" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D1473" s="13" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E1473" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1473" s="15"/>
-      <c r="G1473" s="14"/>
-      <c r="H1473" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1474" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1474" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1474" s="13" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1474" s="13" t="s">
-        <v>1767</v>
-      </c>
-      <c r="E1474" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F1474" s="15"/>
-      <c r="G1474" s="14"/>
-      <c r="H1474" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1475" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1475" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1475" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D1475" s="13" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E1475" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F1475" s="15"/>
-      <c r="G1475" s="14"/>
-      <c r="H1475" s="17">
-        <v>37.49</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1476" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1476" s="13" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1476" s="13" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D1476" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1476" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F1476" s="15"/>
-      <c r="G1476" s="14"/>
-      <c r="H1476" s="17">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1477" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B1477" s="13" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C1477" s="13" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D1477" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="E1477" s="13" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F1477" s="15"/>
-      <c r="G1477" s="14"/>
-      <c r="H1477" s="17">
-        <v>47.63</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1478" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1478" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1478" s="13" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D1478" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1478" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1478" s="13"/>
-      <c r="G1478" s="13"/>
-      <c r="H1478" s="17">
-        <v>43.99</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1479" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1479" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1479" s="13" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D1479" s="13" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E1479" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1479" s="13"/>
-      <c r="G1479" s="13"/>
-      <c r="H1479" s="17">
-        <v>118.99</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1480" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1480" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1480" s="13" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D1480" s="13" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E1480" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1480" s="13"/>
-      <c r="G1480" s="13"/>
-      <c r="H1480" s="17">
-        <v>40.49</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1481" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1481" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1481" s="13" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D1481" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1481" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1481" s="13"/>
-      <c r="G1481" s="13"/>
-      <c r="H1481" s="17">
-        <v>62.99</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1482" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1482" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1482" s="13" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D1482" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1482" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1482" s="13"/>
-      <c r="G1482" s="13"/>
-      <c r="H1482" s="17">
-        <v>39.49</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1483" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1483" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1483" s="13" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D1483" s="13" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E1483" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1483" s="13"/>
-      <c r="G1483" s="13"/>
-      <c r="H1483" s="17">
-        <v>54.99</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1484" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1484" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1484" s="13" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D1484" s="13" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E1484" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1484" s="13"/>
-      <c r="G1484" s="13"/>
-      <c r="H1484" s="17">
-        <v>63.49</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1485" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1485" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1485" s="13" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D1485" s="13" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1485" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1485" s="13"/>
-      <c r="G1485" s="13"/>
-      <c r="H1485" s="17">
-        <v>18.489999999999998</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1486" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1486" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1486" s="13" t="s">
-        <v>1727</v>
-      </c>
-      <c r="D1486" s="13" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E1486" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1486" s="13"/>
-      <c r="G1486" s="13"/>
-      <c r="H1486" s="17">
-        <v>8.2899999999999991</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1487" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1487" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1487" s="13" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D1487" s="13" t="s">
-        <v>1722</v>
-      </c>
-      <c r="E1487" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1487" s="13"/>
-      <c r="G1487" s="13"/>
-      <c r="H1487" s="17">
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1488" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1488" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1488" s="13" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D1488" s="13" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E1488" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1488" s="13"/>
-      <c r="G1488" s="13"/>
-      <c r="H1488" s="17">
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1489" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1489" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1489" s="13" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D1489" s="13" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E1489" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1489" s="13"/>
-      <c r="G1489" s="13"/>
-      <c r="H1489" s="17">
-        <v>19.489999999999998</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1490" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1490" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1490" s="13" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D1490" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E1490" s="13" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F1490" s="13"/>
-      <c r="G1490" s="13"/>
-      <c r="H1490" s="17">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1491" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1491" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C1491" s="13" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D1491" s="13" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E1491" s="13" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F1491" s="13"/>
-      <c r="G1491" s="13"/>
-      <c r="H1491" s="17">
-        <v>104.99</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1492" s="15"/>
-      <c r="B1492" s="18"/>
-      <c r="C1492" s="18"/>
-      <c r="D1492" s="19"/>
-      <c r="E1492" s="18"/>
-      <c r="F1492" s="18"/>
-      <c r="G1492" s="14"/>
-    </row>
-    <row r="1493" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1493" s="15"/>
-      <c r="B1493" s="18"/>
-      <c r="C1493" s="18"/>
-      <c r="D1493" s="19"/>
-      <c r="E1493" s="18"/>
-      <c r="F1493" s="18"/>
-      <c r="G1493" s="14"/>
-    </row>
-    <row r="1494" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1494" s="15"/>
-      <c r="B1494" s="18"/>
-      <c r="C1494" s="18"/>
-      <c r="D1494" s="19"/>
-      <c r="E1494" s="18"/>
-      <c r="F1494" s="18"/>
-      <c r="G1494" s="14"/>
-    </row>
-    <row r="1495" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1495" s="15"/>
-      <c r="B1495" s="18"/>
-      <c r="C1495" s="18"/>
-      <c r="D1495" s="19"/>
-      <c r="E1495" s="18"/>
-      <c r="F1495" s="18"/>
-      <c r="G1495" s="14"/>
-    </row>
-    <row r="1496" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1496" s="15"/>
-      <c r="B1496" s="18"/>
-      <c r="C1496" s="18"/>
-      <c r="D1496" s="19"/>
-      <c r="E1496" s="18"/>
-      <c r="F1496" s="18"/>
-      <c r="G1496" s="14"/>
-    </row>
-    <row r="1497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1497" s="15"/>
-      <c r="B1497" s="18"/>
-      <c r="C1497" s="18"/>
-      <c r="D1497" s="19"/>
-      <c r="E1497" s="18"/>
-      <c r="F1497" s="18"/>
-      <c r="G1497" s="14"/>
-    </row>
-    <row r="1498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1498" s="15"/>
-      <c r="B1498" s="18"/>
-      <c r="C1498" s="18"/>
-      <c r="D1498" s="19"/>
-      <c r="E1498" s="18"/>
-      <c r="F1498" s="18"/>
-      <c r="G1498" s="14"/>
-    </row>
-    <row r="1499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1499" s="15"/>
-      <c r="B1499" s="18"/>
-      <c r="C1499" s="18"/>
-      <c r="D1499" s="19"/>
-      <c r="E1499" s="18"/>
-      <c r="F1499" s="18"/>
-      <c r="G1499" s="14"/>
-    </row>
-    <row r="1500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1500" s="15"/>
-      <c r="B1500" s="18"/>
-      <c r="C1500" s="18"/>
-      <c r="D1500" s="19"/>
-      <c r="E1500" s="18"/>
-      <c r="F1500" s="18"/>
-      <c r="G1500" s="14"/>
-    </row>
-    <row r="1501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1501" s="15"/>
-      <c r="B1501" s="18"/>
-      <c r="C1501" s="18"/>
-      <c r="D1501" s="19"/>
-      <c r="E1501" s="18"/>
-      <c r="F1501" s="18"/>
-      <c r="G1501" s="14"/>
-    </row>
-    <row r="1502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1502" s="15"/>
-      <c r="B1502" s="18"/>
-      <c r="C1502" s="18"/>
-      <c r="D1502" s="19"/>
-      <c r="E1502" s="18"/>
-      <c r="F1502" s="18"/>
-      <c r="G1502" s="14"/>
-    </row>
-    <row r="1503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1503" s="15"/>
-      <c r="B1503" s="18"/>
-      <c r="C1503" s="18"/>
-      <c r="D1503" s="19"/>
-      <c r="E1503" s="18"/>
-      <c r="F1503" s="18"/>
-      <c r="G1503" s="14"/>
-    </row>
-    <row r="1504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1504" s="15"/>
-      <c r="B1504" s="18"/>
-      <c r="C1504" s="18"/>
-      <c r="D1504" s="19"/>
-      <c r="E1504" s="18"/>
-      <c r="F1504" s="18"/>
-      <c r="G1504" s="14"/>
-    </row>
-    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1505" s="15"/>
-      <c r="B1505" s="18"/>
-      <c r="C1505" s="18"/>
-      <c r="D1505" s="19"/>
-      <c r="E1505" s="18"/>
-      <c r="F1505" s="18"/>
-      <c r="G1505" s="14"/>
-    </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1506" s="15"/>
-      <c r="B1506" s="18"/>
-      <c r="C1506" s="18"/>
-      <c r="D1506" s="19"/>
-      <c r="E1506" s="18"/>
-      <c r="F1506" s="18"/>
-      <c r="G1506" s="14"/>
-    </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1507" s="15"/>
-      <c r="B1507" s="18"/>
-      <c r="C1507" s="18"/>
-      <c r="D1507" s="19"/>
-      <c r="E1507" s="18"/>
-      <c r="F1507" s="18"/>
-      <c r="G1507" s="14"/>
-    </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1508" s="15"/>
-      <c r="B1508" s="18"/>
-      <c r="C1508" s="18"/>
-      <c r="D1508" s="19"/>
-      <c r="E1508" s="18"/>
-      <c r="F1508" s="18"/>
-      <c r="G1508" s="14"/>
-    </row>
-    <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1509" s="15"/>
-      <c r="B1509" s="18"/>
-      <c r="C1509" s="18"/>
-      <c r="D1509" s="19"/>
-      <c r="E1509" s="18"/>
-      <c r="F1509" s="18"/>
-      <c r="G1509" s="14"/>
-    </row>
-    <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1510" s="15"/>
-      <c r="B1510" s="18"/>
-      <c r="C1510" s="18"/>
-      <c r="D1510" s="19"/>
-      <c r="E1510" s="18"/>
-      <c r="F1510" s="18"/>
-      <c r="G1510" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8887F7-CFFF-4469-BE22-2A1AD1524924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908610C6-51D1-482C-965E-D20D45096D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7920" yWindow="6180" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6932" uniqueCount="1930">
   <si>
     <t>Order Date</t>
   </si>
@@ -5645,6 +5645,174 @@
   </si>
   <si>
     <t>Vitamix 15504 48 oz. Clear Tritan™ Copolyester Blender Jar with Lid and Wet Blade Assembly for Vitamix Blenders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 27, 2025</t>
+  </si>
+  <si>
+    <t>109231519</t>
+  </si>
+  <si>
+    <t>101SHT106115</t>
+  </si>
+  <si>
+    <t>Stratas Primex Golden Flex All-Purpose Shortening 50 lb.</t>
+  </si>
+  <si>
+    <t>102SALT50</t>
+  </si>
+  <si>
+    <t>Morton 50 lb. Bulk Non-Iodized Table Salt</t>
+  </si>
+  <si>
+    <t>874RE32056</t>
+  </si>
+  <si>
+    <t>Clover Dale 1 Lb. Salted Grade AA Butter Solid - 36/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 30, 2025</t>
+  </si>
+  <si>
+    <t>109312954</t>
+  </si>
+  <si>
+    <t>Baker's Lane 16" x 24" Full Size Silicone Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1,000/Case</t>
+  </si>
+  <si>
+    <t>92247142</t>
+  </si>
+  <si>
+    <t>109320678</t>
+  </si>
+  <si>
+    <t>725RRP15B09</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Purple Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t>725RRP15B04</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Pink Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t>725RRP15B05</t>
+  </si>
+  <si>
+    <t>Roxy &amp; Rich Brilliant Blue Fat Dispersible Dust 15 grams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> March 31, 2025</t>
+  </si>
+  <si>
+    <t>109352110</t>
+  </si>
+  <si>
+    <t>544SYPFR006KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Blackberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR247KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Cookie Butter Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>109361281</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 1, 2025</t>
+  </si>
+  <si>
+    <t>109411896</t>
+  </si>
+  <si>
+    <t>Durable Packaging BB4224N 24" x 4 1/2" x 2 1/2" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
+  </si>
+  <si>
+    <t>245CCGR1410BL</t>
+  </si>
+  <si>
+    <t>10207088</t>
+  </si>
+  <si>
+    <t>544SYPFR035F</t>
+  </si>
+  <si>
+    <t>Monin Premium Passion Fruit Flavoring / Fruit Syrup 1 Liter</t>
+  </si>
+  <si>
+    <t>544FRTRP248F</t>
+  </si>
+  <si>
+    <t>Monin 1 Liter Yuzu Fruit Puree</t>
+  </si>
+  <si>
+    <t>Durable Packaging BB6218N 18" x 6" x 3 1/4" Kraft Paper Windowed Bread Bag - 1,000/Case</t>
+  </si>
+  <si>
+    <t>109420441</t>
+  </si>
+  <si>
+    <t>9651152</t>
+  </si>
+  <si>
+    <t>Vitamix 1152 Wet Blade Assembly for Standard Vitamix Blender Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 2, 2025</t>
+  </si>
+  <si>
+    <t>109468249</t>
+  </si>
+  <si>
+    <t>10200013</t>
+  </si>
+  <si>
+    <t>Regal Bulk Fancy Basil Leaves - 10 lb.</t>
+  </si>
+  <si>
+    <t>10200106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 6, 2025</t>
+  </si>
+  <si>
+    <t>109603356</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 7, 2025</t>
+  </si>
+  <si>
+    <t>109630489</t>
+  </si>
+  <si>
+    <t>109650945</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 8, 2025</t>
+  </si>
+  <si>
+    <t>109687830</t>
+  </si>
+  <si>
+    <t>AP421717</t>
+  </si>
+  <si>
+    <t>AllPoints 42-1717 On/Off/On Toggle Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 9, 2025</t>
+  </si>
+  <si>
+    <t>109751349</t>
+  </si>
+  <si>
+    <t>Baker's Lane 7 15/16" x 1 1/8" Deep Foil Pie Pan - 1,000/Case</t>
   </si>
 </sst>
 </file>
@@ -6117,10 +6285,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1460"/>
+  <dimension ref="A1:H1520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1435" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1460" sqref="A1436:G1460"/>
+    <sheetView tabSelected="1" topLeftCell="A1496" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1520" sqref="C1520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -30386,6 +30554,1252 @@
         <v>39.99</v>
       </c>
     </row>
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1461">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1462">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1463">
+        <v>133.38</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1464">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1465">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1466">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1467">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1468">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1469">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1470">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1471">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1472">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1473">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1474">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1475">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1476">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1477">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1478">
+        <v>43.99</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1479">
+        <v>118.99</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1480">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1481">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1482">
+        <v>39.49</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1483">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1484">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1485">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1486" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1486">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1487" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1487">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1488" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1488">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1489" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1489">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1490" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1490">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1491" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1491" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1491" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D1491" s="13" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E1491" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1491" s="15"/>
+      <c r="G1491" s="14"/>
+      <c r="H1491" s="13">
+        <v>104.99</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1492" s="13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1492" s="13" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1492" s="13" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D1492" s="13" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E1492" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1492" s="15"/>
+      <c r="G1492" s="14"/>
+      <c r="H1492" s="13">
+        <v>61.49</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1493" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1493" s="13" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1493" s="13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1493" s="13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1493" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1493" s="15"/>
+      <c r="G1493" s="14"/>
+      <c r="H1493" s="13">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1494" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1494" s="13" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1494" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1494" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1494" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1494" s="15"/>
+      <c r="G1494" s="14"/>
+      <c r="H1494" s="13">
+        <v>154.49</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1495" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1495" s="13" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1495" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1495" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1495" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1495" s="15"/>
+      <c r="G1495" s="14"/>
+      <c r="H1495" s="13">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1496" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1496" s="13" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1496" s="13" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1496" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1496" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1496" s="15"/>
+      <c r="G1496" s="14"/>
+      <c r="H1496" s="13">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1497" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1497" s="13" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1497" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1497" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1497" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1497" s="15"/>
+      <c r="G1497" s="14"/>
+      <c r="H1497" s="13">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1498" s="13" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1498" s="13" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1498" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1498" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1498" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F1498" s="15"/>
+      <c r="G1498" s="14"/>
+      <c r="H1498" s="13">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1499" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1499" s="13" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1499" s="13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1499" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1499" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1499" s="15"/>
+      <c r="G1499" s="14"/>
+      <c r="H1499" s="13">
+        <v>57.68</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1500" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1500" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1500" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1500" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1500" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1500" s="15"/>
+      <c r="G1500" s="14"/>
+      <c r="H1500" s="13">
+        <v>53.49</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1501" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1501" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1501" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1501" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="E1501" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1501" s="15"/>
+      <c r="G1501" s="14"/>
+      <c r="H1501" s="13">
+        <v>59.49</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1502" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1502" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1502" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1502" s="13" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1502" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1502" s="15"/>
+      <c r="G1502" s="14"/>
+      <c r="H1502" s="13">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1503" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1503" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1503" s="13" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1503" s="13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E1503" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1503" s="15"/>
+      <c r="G1503" s="14"/>
+      <c r="H1503" s="13">
+        <v>47.28</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1504" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1504" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1504" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1504" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1504" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1504" s="15"/>
+      <c r="G1504" s="14"/>
+      <c r="H1504" s="13">
+        <v>123.47</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1505" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1505" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1505" s="13" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D1505" s="13" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E1505" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F1505" s="15"/>
+      <c r="G1505" s="14"/>
+      <c r="H1505" s="13">
+        <v>37.489999999999988</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1506" s="13" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1506" s="13" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1506" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D1506" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E1506" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1506" s="15"/>
+      <c r="G1506" s="14"/>
+      <c r="H1506" s="13">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1507" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1507" s="13" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1507" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1507" s="13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1507" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1507" s="13">
+        <v>99.76</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1508" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1508" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1508" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1508" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E1508" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1508" s="15"/>
+      <c r="G1508" s="14"/>
+      <c r="H1508" s="13">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1509" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1509" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1509" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1509" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E1509" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1509" s="15"/>
+      <c r="G1509" s="14"/>
+      <c r="H1509" s="13">
+        <v>316.99</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1510" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1510" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1510" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1510" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1510" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1510" s="15"/>
+      <c r="G1510" s="14"/>
+      <c r="H1510" s="13">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1511" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1511" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1511" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1511" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1511" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1511" s="15"/>
+      <c r="G1511" s="14"/>
+      <c r="H1511" s="13">
+        <v>178.49</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1512" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1512" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1512" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1512" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E1512" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1512" s="15"/>
+      <c r="G1512" s="14"/>
+      <c r="H1512" s="13">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1513" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1513" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1513" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1513" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E1513" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1513" s="15"/>
+      <c r="G1513" s="14"/>
+      <c r="H1513" s="13">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1514" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1514" s="13" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1514" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1514" s="13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1514" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1514" s="15"/>
+      <c r="G1514" s="14"/>
+      <c r="H1514" s="13">
+        <v>99.76</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1515" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1515" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1515" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1515" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E1515" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1515" s="13">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1516" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1516" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1516" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1516" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E1516" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1516" s="13">
+        <v>316.99</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1517" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1517" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1517" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1517" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1517" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1517" s="13">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1518" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1518" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1518" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1518" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1518" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1518" s="13">
+        <v>178.49</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1519" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1519" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1519" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1519" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E1519" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1519" s="13">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1520" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1520" s="13" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1520" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1520" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E1520" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1520" s="13">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908610C6-51D1-482C-965E-D20D45096D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0512DFC9-88B7-4182-84FB-5E406B9B7798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27900" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6932" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="2077">
   <si>
     <t>Order Date</t>
   </si>
@@ -5813,6 +5813,447 @@
   </si>
   <si>
     <t>Baker's Lane 7 15/16" x 1 1/8" Deep Foil Pie Pan - 1,000/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 11, 2025</t>
+  </si>
+  <si>
+    <t>109829840</t>
+  </si>
+  <si>
+    <t>101BAKINGPWDR</t>
+  </si>
+  <si>
+    <t>Double Acting Baking Powder 5 lb. - 8/Case</t>
+  </si>
+  <si>
+    <t>Vollrath 47142 Jacob's Pride® #12 Green Thumb Press Disher - 2.66 oz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 12, 2025</t>
+  </si>
+  <si>
+    <t>109858349</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 16, 2025</t>
+  </si>
+  <si>
+    <t>110000453</t>
+  </si>
+  <si>
+    <t>110015708</t>
+  </si>
+  <si>
+    <t>5537104</t>
+  </si>
+  <si>
+    <t>Acopa 5 oz. Customizable Barbary Beer Tasting Glass - 12/Case</t>
+  </si>
+  <si>
+    <t>55090038RDBR</t>
+  </si>
+  <si>
+    <t>Acopa 14 1/2" Mahogany Finish Flight Paddle - 12/Case</t>
+  </si>
+  <si>
+    <t>110031700</t>
+  </si>
+  <si>
+    <t>Baker's Lane 16" x 24" Full Size Quilon® Coated Parchment Paper Bun / Sheet Pan Liner Sheet - 1,000/Case</t>
+  </si>
+  <si>
+    <t>110031760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 20, 2025</t>
+  </si>
+  <si>
+    <t>110160002</t>
+  </si>
+  <si>
+    <t>176BDT</t>
+  </si>
+  <si>
+    <t>Choice Clear Acrylic Bakery Display Case Tray - 20 1/4" x 13 1/4"</t>
+  </si>
+  <si>
+    <t>164SIGNBK</t>
+  </si>
+  <si>
+    <t>176CKC12</t>
+  </si>
+  <si>
+    <t>Choice 12" x 6" Clear Round Cake Cover</t>
+  </si>
+  <si>
+    <t>220KWPAR3SMT</t>
+  </si>
+  <si>
+    <t>Choice 3 1/4" Smooth Edge Paring Knife with White Handle - 3/Pack</t>
+  </si>
+  <si>
+    <t>21018183</t>
+  </si>
+  <si>
+    <t>Dexter-Russell 18183 Sani-Safe 3 1/2" Smooth Sandwich Spreaders - 3/Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11</t>
+  </si>
+  <si>
+    <t>176CH2BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 21, 2025</t>
+  </si>
+  <si>
+    <t>110179554</t>
+  </si>
+  <si>
+    <t>1020708239KT</t>
+  </si>
+  <si>
+    <t>Regal Ground Cumin - 4 lb. - 4/Case</t>
+  </si>
+  <si>
+    <t>110205362</t>
+  </si>
+  <si>
+    <t>Monin Sugar-Free Vanilla Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>Monin Sugar-Free Caramel Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 22, 2025</t>
+  </si>
+  <si>
+    <t>110230282</t>
+  </si>
+  <si>
+    <t>110JLCLLBKT</t>
+  </si>
+  <si>
+    <t>Jade Leaf Culinary Matcha Powder 1 lb. (454g) - 6/Case</t>
+  </si>
+  <si>
+    <t>110232295</t>
+  </si>
+  <si>
+    <t>760SOUP64MB</t>
+  </si>
+  <si>
+    <t>Choice 64 oz. Medley Double Poly-Coated Paper Soup / Hot Food Cup - 150/Case</t>
+  </si>
+  <si>
+    <t>760SOUP64WBL</t>
+  </si>
+  <si>
+    <t>Choice 64 oz. White Paper Soup / Hot Food Cup Vented Lid - 150/Case</t>
+  </si>
+  <si>
+    <t>Choice 6 1/2" x 7 3/4" Plastic Food Bag on a Roll - 2,000/Case</t>
+  </si>
+  <si>
+    <t>110TWN09181KT</t>
+  </si>
+  <si>
+    <t>Twinings English Breakfast Tea Bags - 150/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 23, 2025</t>
+  </si>
+  <si>
+    <t>110277106</t>
+  </si>
+  <si>
+    <t>544SYPFR007KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Blue Curacao Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>711RGRMCRK50</t>
+  </si>
+  <si>
+    <t>Graham Cracker Crumbs 50 lb.</t>
+  </si>
+  <si>
+    <t>110281089</t>
+  </si>
+  <si>
+    <t>110282745</t>
+  </si>
+  <si>
+    <t>110302512</t>
+  </si>
+  <si>
+    <t>104SUGAR50</t>
+  </si>
+  <si>
+    <t>Golden Barrel Extra-Fine Granulated Pure Sugar 50 lb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 25, 2025</t>
+  </si>
+  <si>
+    <t>110368648</t>
+  </si>
+  <si>
+    <t>1761GBUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 26, 2025</t>
+  </si>
+  <si>
+    <t>110410556</t>
+  </si>
+  <si>
+    <t>185CF3HC1W</t>
+  </si>
+  <si>
+    <t>Beverage-Air CF3HC-1-W 23" White Countertop Display Freezer with Swing Door</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 28, 2025</t>
+  </si>
+  <si>
+    <t>110459713</t>
+  </si>
+  <si>
+    <t>102708358</t>
+  </si>
+  <si>
+    <t>Regal Yellow Mustard Seed - 16 oz.</t>
+  </si>
+  <si>
+    <t>102708076</t>
+  </si>
+  <si>
+    <t>Regal Cumin Seeds - 8 oz.</t>
+  </si>
+  <si>
+    <t>92247139</t>
+  </si>
+  <si>
+    <t>Vollrath 47139 Jacob's Pride® #6 White Thumb Press Disher - 5.33 oz.</t>
+  </si>
+  <si>
+    <t>110474748</t>
+  </si>
+  <si>
+    <t>110487505</t>
+  </si>
+  <si>
+    <t>760OPT1224TG</t>
+  </si>
+  <si>
+    <t>Dart OPT1224TG White Optima ThermoGuard Lid with Reclosable Tab - 1,200/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> April 29, 2025</t>
+  </si>
+  <si>
+    <t>110535364</t>
+  </si>
+  <si>
+    <t>Choice 4 oz. Black Hot Paper Cup Travel Lid - 1,000/Case</t>
+  </si>
+  <si>
+    <t>914SDT100M</t>
+  </si>
+  <si>
+    <t>AvaTime Digital 100 Minute Kitchen Timer</t>
+  </si>
+  <si>
+    <t>544SYPFR036KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Peach Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544FRTRP248KT</t>
+  </si>
+  <si>
+    <t>Monin 1 Liter Yuzu Fruit Puree - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR049KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Granny Smith Apple Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>110TWN05305KT</t>
+  </si>
+  <si>
+    <t>Twinings Earl Grey Decaffeinated Tea Bags - 120/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 3, 2025</t>
+  </si>
+  <si>
+    <t>110702936</t>
+  </si>
+  <si>
+    <t>544SYPFR069KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Blood Orange Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 5, 2025</t>
+  </si>
+  <si>
+    <t>110758107</t>
+  </si>
+  <si>
+    <t>980186706MC</t>
+  </si>
+  <si>
+    <t>Benriner 186706 "Big Beni" Japanese Mandoline with 3 Interchangeable Blades</t>
+  </si>
+  <si>
+    <t>176MATSHOI</t>
+  </si>
+  <si>
+    <t>Baker's Lane 11 3/4" x 16 1/2" Half Size Heavy-Duty Orange Indexed Silicone Non-Stick Baking Mat</t>
+  </si>
+  <si>
+    <t>176MATSFOI</t>
+  </si>
+  <si>
+    <t>Baker's Lane 16 1/2" x 24 1/2" Full Size Heavy-Duty Orange Indexed Silicone Non-Stick Baking Mat</t>
+  </si>
+  <si>
+    <t>110TWN05305</t>
+  </si>
+  <si>
+    <t>*TEA BAGS EARL GREY DECAF 20/BOX TWININGS (From Kit 110TWN05305KT)</t>
+  </si>
+  <si>
+    <t>*TEA BAGS EARL GREY DECAF 20/BOX TWININGS</t>
+  </si>
+  <si>
+    <t>110758134</t>
+  </si>
+  <si>
+    <t>104APRICOT28</t>
+  </si>
+  <si>
+    <t>Dried Apricots 28 lb.</t>
+  </si>
+  <si>
+    <t>110766276</t>
+  </si>
+  <si>
+    <t>3639225768</t>
+  </si>
+  <si>
+    <t>Fabbri Delipaste 1.5 kg Raspberry Flavoring Paste</t>
+  </si>
+  <si>
+    <t>3639225435</t>
+  </si>
+  <si>
+    <t>Fabbri Delipaste 1.35 kg Moka / Coffee Flavoring Paste</t>
+  </si>
+  <si>
+    <t>110784150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 6, 2025</t>
+  </si>
+  <si>
+    <t>110812270</t>
+  </si>
+  <si>
+    <t>263TABS</t>
+  </si>
+  <si>
+    <t>Edwards-Councilor S150E48 Steramine Sanitizer Tablets (Sanitabs) - 900/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR147KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Elderflower Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR008K</t>
+  </si>
+  <si>
+    <t>Monin Premium Blueberry Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>544SYPFR095KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Cucumber Flavoring Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>110823052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 7, 2025</t>
+  </si>
+  <si>
+    <t>110871838</t>
+  </si>
+  <si>
+    <t>110875860</t>
+  </si>
+  <si>
+    <t>80AGCSW7P</t>
+  </si>
+  <si>
+    <t>Gorilla GCSW-7P 150 lb. Collapsible Folding Outdoor Utility Wagon with Oversized Bed</t>
+  </si>
+  <si>
+    <t>407SBS15</t>
+  </si>
+  <si>
+    <t>Choice 15" Solid Stainless Steel Basting Spoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 10, 2025</t>
+  </si>
+  <si>
+    <t>110996024</t>
+  </si>
+  <si>
+    <t>130PPF0628M1M</t>
+  </si>
+  <si>
+    <t>Plastic Bread Bag 6" x 28" with Micro-Perforations - 1,000/Case</t>
+  </si>
+  <si>
+    <t>110996027</t>
+  </si>
+  <si>
+    <t>111001024</t>
+  </si>
+  <si>
+    <t>130SERVSP8BK</t>
+  </si>
+  <si>
+    <t>Visions 8 1/2" Black Disposable Plastic Serving Spoon - 72/Case</t>
+  </si>
+  <si>
+    <t>808724D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 13, 2025</t>
+  </si>
+  <si>
+    <t>111123619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
   </si>
 </sst>
 </file>
@@ -5873,7 +6314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5917,6 +6358,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6285,10 +6730,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1520"/>
+  <dimension ref="A1:H1670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1496" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1520" sqref="C1520"/>
+    <sheetView tabSelected="1" topLeftCell="A1649" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1655" sqref="A1655:G1670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -31800,6 +32245,3080 @@
         <v>79.989999999999995</v>
       </c>
     </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1521">
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1522">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1523">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1524">
+        <v>37.489999999999988</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1525">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1526">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1527">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1528">
+        <v>76.489999999999995</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1529">
+        <v>76.489999999999995</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H1530">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1531">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1532">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1533">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1534">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1535">
+        <v>43.99</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1536">
+        <v>117.94</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1537">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1538">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1539">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1540">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1541">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1542">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>737</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1543">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1544">
+        <v>7.4899999999999993</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1545" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1545" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1545" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1545" s="13" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E1545" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F1545" s="15"/>
+      <c r="G1545" s="14"/>
+      <c r="H1545" s="13">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1546" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1546" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1546" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1546" s="13" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1546" s="13" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F1546" s="15"/>
+      <c r="G1546" s="14"/>
+      <c r="H1546" s="13">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1547" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1547" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1547" s="13" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D1547" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1547" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F1547" s="15"/>
+      <c r="G1547" s="14"/>
+      <c r="H1547" s="13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1548" s="13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1548" s="13" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1548" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1548" s="13" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1548" s="13" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F1548" s="15"/>
+      <c r="G1548" s="14"/>
+      <c r="H1548" s="13">
+        <v>25.63</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1549" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1549" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1549" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1549" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1549" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1549" s="15"/>
+      <c r="G1549" s="14"/>
+      <c r="H1549" s="13">
+        <v>154.49</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1550" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1550" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1550" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1550" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1550" s="15"/>
+      <c r="G1550" s="14"/>
+      <c r="H1550" s="13">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1551" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1551" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1551" s="13" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1551" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1551" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1551" s="15"/>
+      <c r="G1551" s="14"/>
+      <c r="H1551" s="13">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1552" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1552" s="13" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1552" s="13" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D1552" s="13" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1552" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1552" s="15"/>
+      <c r="G1552" s="14"/>
+      <c r="H1552" s="13">
+        <v>64.989999999999995</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1553" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1553" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1553" s="13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1553" s="13" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1553" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1553" s="15"/>
+      <c r="G1553" s="14"/>
+      <c r="H1553" s="13">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1554" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1554" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1554" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1554" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E1554" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1554" s="15"/>
+      <c r="G1554" s="14"/>
+      <c r="H1554" s="13">
+        <v>92.49</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1555" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1555" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1555" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1555" s="13" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1555" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1555" s="15"/>
+      <c r="G1555" s="14"/>
+      <c r="H1555" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1556" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1556" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1556" s="13" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1556" s="13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1556" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1556" s="15"/>
+      <c r="G1556" s="14"/>
+      <c r="H1556" s="13">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1557" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1557" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1557" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1557" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1557" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1557" s="15"/>
+      <c r="G1557" s="14"/>
+      <c r="H1557" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1558" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1558" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1558" s="13" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D1558" s="13" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E1558" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1558" s="15"/>
+      <c r="G1558" s="14"/>
+      <c r="H1558" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1559" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1559" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1559" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1559" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1559" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1559" s="15"/>
+      <c r="G1559" s="14"/>
+      <c r="H1559" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1560" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1560" s="13" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C1560" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D1560" s="13" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1560" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1560" s="15"/>
+      <c r="G1560" s="14"/>
+      <c r="H1560" s="13">
+        <v>237.99</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1561" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1561" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1561" s="13" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D1561" s="13" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1561" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1561" s="15"/>
+      <c r="G1561" s="14"/>
+      <c r="H1561" s="13">
+        <v>53.49</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1562" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1562" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1562" s="13" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D1562" s="13" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E1562" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1562" s="15"/>
+      <c r="G1562" s="14"/>
+      <c r="H1562" s="13">
+        <v>54.49</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1563" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1563" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1563" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1563" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1563" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1563" s="15"/>
+      <c r="G1563" s="14"/>
+      <c r="H1563" s="13">
+        <v>58.49</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1564" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1564" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1564" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D1564" s="13" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1564" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1564" s="15"/>
+      <c r="G1564" s="14"/>
+      <c r="H1564" s="13">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1565" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1565" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1565" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1565" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1565" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1565" s="15"/>
+      <c r="G1565" s="14"/>
+      <c r="H1565" s="13">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1566" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1566" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1566" s="13" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D1566" s="13" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E1566" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1566" s="15"/>
+      <c r="G1566" s="14"/>
+      <c r="H1566" s="13">
+        <v>97.99</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1567" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1567" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1567" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1567" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1567" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1567" s="15"/>
+      <c r="G1567" s="14"/>
+      <c r="H1567" s="13">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1568" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1568" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1568" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1568" s="13" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1568" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1568" s="15"/>
+      <c r="G1568" s="14"/>
+      <c r="H1568" s="13">
+        <v>43.99</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1569" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1569" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1569" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1569" s="13" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1569" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1569" s="15"/>
+      <c r="G1569" s="14"/>
+      <c r="H1569" s="13">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1570" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1570" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1570" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D1570" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E1570" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1570" s="15"/>
+      <c r="G1570" s="14"/>
+      <c r="H1570" s="13">
+        <v>46.49</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1571" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1571" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1571" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1571" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1571" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1571" s="15"/>
+      <c r="G1571" s="14"/>
+      <c r="H1571" s="13">
+        <v>59.49</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1572" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1572" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1572" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1572" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E1572" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1572" s="15"/>
+      <c r="G1572" s="14"/>
+      <c r="H1572" s="13">
+        <v>87.89</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1573" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1573" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1573" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1573" s="13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E1573" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1573" s="15"/>
+      <c r="G1573" s="14"/>
+      <c r="H1573" s="13">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1574" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1574" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1574" s="13" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D1574" s="13" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E1574" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1574" s="15"/>
+      <c r="G1574" s="14"/>
+      <c r="H1574" s="13">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1575" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1575" s="13" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1575" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D1575" s="13" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E1575" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1575" s="15"/>
+      <c r="G1575" s="14"/>
+      <c r="H1575" s="13">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1576" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1576" s="13" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1576" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1576" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E1576" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1576" s="15"/>
+      <c r="G1576" s="14"/>
+      <c r="H1576" s="13">
+        <v>116.44</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1577" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1577" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1577" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D1577" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1577" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1577" s="15"/>
+      <c r="G1577" s="14"/>
+      <c r="H1577" s="13">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1578" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1578" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1578" s="13" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D1578" s="13" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1578" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1578" s="15"/>
+      <c r="G1578" s="14"/>
+      <c r="H1578" s="13">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1579" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1579" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1579" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1579" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1579" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1579" s="15"/>
+      <c r="G1579" s="14"/>
+      <c r="H1579" s="13">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1580" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1580" s="13" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1580" s="13" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D1580" s="13" t="s">
+        <v>1830</v>
+      </c>
+      <c r="E1580" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1580" s="15"/>
+      <c r="G1580" s="14"/>
+      <c r="H1580" s="13">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1581" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1581" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1581" s="13" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D1581" s="13" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1581" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1581" s="13">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1582" s="13" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1582" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C1582" s="13" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1582" s="13" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1582" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1582" s="13">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1583" s="15"/>
+      <c r="B1583" s="15"/>
+      <c r="C1583" s="15"/>
+      <c r="D1583" s="17"/>
+      <c r="E1583" s="15"/>
+      <c r="F1583" s="15"/>
+      <c r="G1583" s="14"/>
+      <c r="H1583" s="18"/>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H1584">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1585">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1586">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H1587">
+        <v>5.4899999999999993</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H1588">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1589">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1590">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1591">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1592">
+        <v>58.989999999999988</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1593">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1594">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1595">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1596">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1597">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1598">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1599">
+        <v>37.489999999999988</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E1600" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1600">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>1902</v>
+      </c>
+      <c r="E1601" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H1601">
+        <v>118.99</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1602" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1602">
+        <v>34.49</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1603" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1603">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1604" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1604">
+        <v>94.99</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1605" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1605">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1606" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1606">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1607" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1607">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1608" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1608">
+        <v>68.489999999999995</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1609" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1609">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E1610" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1610">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1611" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1611">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1612">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E1613" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1613">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1614" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1614">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E1615" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H1615">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E1616" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1616">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1617" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1617">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1618" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1618">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1619" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H1619">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1620" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H1620">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1621" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1621">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1622" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1622">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1623" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H1623">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E1624" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H1624">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1625" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1625">
+        <v>128.49</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E1626" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1626">
+        <v>57.49</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E1627" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1627">
+        <v>51.49</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1628">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1629">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1630">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1631">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1632">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1633">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H1634">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1635">
+        <v>76.489999999999995</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1636">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1637">
+        <v>478.49</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1638">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1639">
+        <v>127.96</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1640">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1641">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1642">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1643">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1644">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1645">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1646">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1647">
+        <v>72.489999999999995</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1648">
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1649">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1650">
+        <v>96.49</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1651">
+        <v>108.49</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1652">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1653">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H1654">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1655" s="13" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1655" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1655" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D1655" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E1655" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1655" s="15"/>
+      <c r="G1655" s="14"/>
+      <c r="H1655" s="13">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1656" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1656" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1656" s="13" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D1656" s="13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1656" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1656" s="15"/>
+      <c r="G1656" s="14"/>
+      <c r="H1656" s="13">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1657" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1657" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1657" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D1657" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1657" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1657" s="15"/>
+      <c r="G1657" s="14"/>
+      <c r="H1657" s="13">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1658" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1658" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1658" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D1658" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1658" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1658" s="15"/>
+      <c r="G1658" s="14"/>
+      <c r="H1658" s="13">
+        <v>46.19</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1659" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1659" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1659" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1659" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1659" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1659" s="15"/>
+      <c r="G1659" s="14"/>
+      <c r="H1659" s="13">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1660" s="13" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1660" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1660" s="13" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1660" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="E1660" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1660" s="15"/>
+      <c r="G1660" s="14"/>
+      <c r="H1660" s="13">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1661" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1661" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1661" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1661" s="13" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E1661" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1661" s="13">
+        <v>40.49</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1662" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1662" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1662" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D1662" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1662" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1662" s="13">
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1663" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1663" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1663" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1663" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1663" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1663" s="13">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1664" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1664" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1664" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1664" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1664" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1664" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1665" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1665" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1665" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1665" s="13" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E1665" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1665" s="13">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1666" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1666" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1666" s="13" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1666" s="13" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E1666" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1666" s="13">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1667" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1667" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1667" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1667" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1667" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1667" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1668" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1668" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1668" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1668" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1668" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1668" s="13">
+        <v>76.489999999999995</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1669" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1669" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1669" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1669" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1669" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H1669" s="13">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1670" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1670" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C1670" s="13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D1670" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1670" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1670" s="13">
+        <v>134.08000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/WorkBot/main/backend/smallwares/PickList.xlsx
+++ b/WorkBot/main/backend/smallwares/PickList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew\Desktop\Andrew\Projects\RandomStuff\WorkBot\main\backend\smallwares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0512DFC9-88B7-4182-84FB-5E406B9B7798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D94C501-FADB-465D-B22B-339562C399B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7677" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7777" uniqueCount="2103">
   <si>
     <t>Order Date</t>
   </si>
@@ -6235,6 +6235,9 @@
     <t>110996027</t>
   </si>
   <si>
+    <t xml:space="preserve">cv                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+  </si>
+  <si>
     <t>111001024</t>
   </si>
   <si>
@@ -6253,7 +6256,82 @@
     <t>111123619</t>
   </si>
   <si>
-    <t xml:space="preserve">cv                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 </t>
+    <t xml:space="preserve"> May 16, 2025</t>
+  </si>
+  <si>
+    <t>111237443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 17, 2025</t>
+  </si>
+  <si>
+    <t>111294844</t>
+  </si>
+  <si>
+    <t>600KSTK10</t>
+  </si>
+  <si>
+    <t>Regency 10" x 3 1/4" Keg Series Keg Stacker for 1/6 or Cornelius Kegs</t>
+  </si>
+  <si>
+    <t>544SYPFR035KT</t>
+  </si>
+  <si>
+    <t>Monin Premium Passion Fruit Flavoring / Fruit Syrup 1 Liter - 4/Case</t>
+  </si>
+  <si>
+    <t>511SI7750</t>
+  </si>
+  <si>
+    <t>San Jamar SI7750 Saf-T-Scoop 20-24 oz. Food Safe Ice Scoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 19, 2025</t>
+  </si>
+  <si>
+    <t>111363498</t>
+  </si>
+  <si>
+    <t>10200106KT</t>
+  </si>
+  <si>
+    <t>Regal Parsley Flakes - 12 oz. - 4/Case</t>
+  </si>
+  <si>
+    <t>10200024KT</t>
+  </si>
+  <si>
+    <t>Regal Celery Seed - 5 lb. - 4/Case</t>
+  </si>
+  <si>
+    <t>100CRAY4PKCS</t>
+  </si>
+  <si>
+    <t>Choice 4 Pack Kids' Restaurant Crayons in Print Box - 1,000/Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 20, 2025</t>
+  </si>
+  <si>
+    <t>111393137</t>
+  </si>
+  <si>
+    <t>40716RSPTULA</t>
+  </si>
+  <si>
+    <t>Choice 16" White Spatula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May 21, 2025</t>
+  </si>
+  <si>
+    <t>111469997</t>
+  </si>
+  <si>
+    <t>21082103</t>
+  </si>
+  <si>
+    <t>Dexter-Russell 82103 13" Magnetic Knife Holder / Strip</t>
   </si>
 </sst>
 </file>
@@ -6730,10 +6808,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1670"/>
+  <dimension ref="A1:H1690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1649" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1655" sqref="A1655:G1670"/>
+    <sheetView tabSelected="1" topLeftCell="A1676" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1675" sqref="A1675:G1690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -34989,10 +35067,10 @@
     </row>
     <row r="1655" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1655" s="13" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="B1655" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1655" s="13" t="s">
         <v>1596</v>
@@ -35014,13 +35092,13 @@
         <v>2065</v>
       </c>
       <c r="B1656" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1656" s="13" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="D1656" s="13" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="E1656" s="13" t="s">
         <v>1248</v>
@@ -35036,7 +35114,7 @@
         <v>2065</v>
       </c>
       <c r="B1657" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1657" s="13" t="s">
         <v>1380</v>
@@ -35058,7 +35136,7 @@
         <v>2065</v>
       </c>
       <c r="B1658" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1658" s="13" t="s">
         <v>1463</v>
@@ -35080,7 +35158,7 @@
         <v>2065</v>
       </c>
       <c r="B1659" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1659" s="13" t="s">
         <v>1770</v>
@@ -35102,10 +35180,10 @@
         <v>2065</v>
       </c>
       <c r="B1660" s="13" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C1660" s="13" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D1660" s="13" t="s">
         <v>742</v>
@@ -35121,10 +35199,10 @@
     </row>
     <row r="1661" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1661" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1661" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1661" s="13" t="s">
         <v>1291</v>
@@ -35141,10 +35219,10 @@
     </row>
     <row r="1662" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1662" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1662" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1662" s="13" t="s">
         <v>1382</v>
@@ -35161,10 +35239,10 @@
     </row>
     <row r="1663" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1663" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1663" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1663" s="13" t="s">
         <v>1290</v>
@@ -35181,10 +35259,10 @@
     </row>
     <row r="1664" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1664" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1664" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1664" s="13" t="s">
         <v>1768</v>
@@ -35201,10 +35279,10 @@
     </row>
     <row r="1665" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1665" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1665" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1665" s="13" t="s">
         <v>1805</v>
@@ -35221,10 +35299,10 @@
     </row>
     <row r="1666" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1666" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1666" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1666" s="13" t="s">
         <v>1822</v>
@@ -35241,10 +35319,10 @@
     </row>
     <row r="1667" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1667" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1667" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1667" s="13" t="s">
         <v>1766</v>
@@ -35261,10 +35339,10 @@
     </row>
     <row r="1668" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1668" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1668" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1668" s="13" t="s">
         <v>1263</v>
@@ -35281,10 +35359,10 @@
     </row>
     <row r="1669" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1669" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1669" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1669" s="13" t="s">
         <v>1265</v>
@@ -35301,10 +35379,10 @@
     </row>
     <row r="1670" spans="1:8" s="13" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1670" s="13" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1670" s="13" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C1670" s="13" t="s">
         <v>1383</v>
@@ -35317,6 +35395,426 @@
       </c>
       <c r="H1670" s="13">
         <v>134.08000000000001</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1671">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1672">
+        <v>18.489999999999998</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1673">
+        <v>68.489999999999995</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1674">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1675" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B1675" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1675" s="13" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D1675" s="13" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E1675" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1675" s="15"/>
+      <c r="G1675" s="14"/>
+      <c r="H1675" s="13">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1676" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1676" s="13" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1676" s="13" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D1676" s="13" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E1676" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1676" s="15"/>
+      <c r="G1676" s="14"/>
+      <c r="H1676" s="13">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1677" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1677" s="13" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1677" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D1677" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E1677" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1677" s="15"/>
+      <c r="G1677" s="14"/>
+      <c r="H1677" s="13">
+        <v>47.49</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1678" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1678" s="13" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1678" s="13" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D1678" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E1678" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F1678" s="15"/>
+      <c r="G1678" s="14"/>
+      <c r="H1678" s="13">
+        <v>154.99</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1679" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1679" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1679" s="13" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D1679" s="13" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E1679" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1679" s="15"/>
+      <c r="G1679" s="14"/>
+      <c r="H1679" s="13">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1680" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1680" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1680" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D1680" s="13" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1680" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F1680" s="15"/>
+      <c r="G1680" s="14"/>
+      <c r="H1680" s="13">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1681" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1681" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1681" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1681" s="13" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1681" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1681" s="15"/>
+      <c r="G1681" s="14"/>
+      <c r="H1681" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1682" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1682" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1682" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1682" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1682" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1682" s="15"/>
+      <c r="G1682" s="14"/>
+      <c r="H1682" s="13">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1683" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1683" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1683" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1683" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1683" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F1683" s="15"/>
+      <c r="G1683" s="14"/>
+      <c r="H1683" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1684" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B1684" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1684" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1684" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E1684" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1684" s="15"/>
+      <c r="G1684" s="14"/>
+      <c r="H1684" s="13">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1685" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1685" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1685" s="13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D1685" s="13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E1685" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1685" s="13">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1686" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1686" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1686" s="13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D1686" s="13" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E1686" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1686" s="13">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1687" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1687" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1687" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1687" s="13" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E1687" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H1687" s="13">
+        <v>21.49</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1688" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1688" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1688" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1688" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E1688" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H1688" s="13">
+        <v>118.49</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1689" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1689" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1689" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1689" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E1689" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H1689" s="13">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:8" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1690" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B1690" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1690" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1690" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1690" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H1690" s="13">
+        <v>94.990000000000009</v>
       </c>
     </row>
   </sheetData>
